--- a/lab8/lab8/task7.xlsx
+++ b/lab8/lab8/task7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Универ\Лабы ОАиП\lab8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Универ\Лабы ОАиП\lab8\lab8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C32BBF3-FFCC-4464-B1E4-A914D48920F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADC77A7-E003-401C-986B-95ABECABD364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E0D74442-8281-46BE-861F-A48C0D6A8CF9}"/>
+    <workbookView xWindow="5376" yWindow="3624" windowWidth="17280" windowHeight="8964" xr2:uid="{E0D74442-8281-46BE-861F-A48C0D6A8CF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -38,13 +38,13 @@
     <t>Вариант 8</t>
   </si>
   <si>
-    <t>Вариант 5</t>
-  </si>
-  <si>
     <t>Вариант 3</t>
   </si>
   <si>
     <t>Вариант 9</t>
+  </si>
+  <si>
+    <t>Вариант 10</t>
   </si>
 </sst>
 </file>
@@ -416,7 +416,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -426,11 +426,11 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
-        <v>1.0000830876297178</v>
+        <v>0.99999839266928359</v>
       </c>
       <c r="B1" s="1">
         <f>A1^3+A1-2</f>
-        <v>3.3237123010732006E-4</v>
+        <v>-6.4293151151861849E-6</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -438,38 +438,38 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>0.16666666666666674</v>
+        <v>1.3787960299264823</v>
       </c>
       <c r="B2" s="1">
-        <f>5*A2 - 1 + A2</f>
-        <v>4.4408920985006262E-16</v>
+        <f>A2^3 + A2 - 4</f>
+        <v>-4.4925308433363398E-6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>0.45352647976909294</v>
+        <v>0.45338253206254542</v>
       </c>
       <c r="B3" s="1">
         <f>A3^3 + 2*A3-1</f>
-        <v>3.3712853383072172E-4</v>
+        <v>-3.9562889335820195E-5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>0.32245876535622986</v>
+        <v>0.32218320140042034</v>
       </c>
       <c r="B4" s="1">
         <f>A4^3+3*A4 - 1</f>
-        <v>9.0544735664987996E-4</v>
+        <v>-7.1302089671432256E-6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
